--- a/Output/roaming_impact_reports_per_acct/Publicis_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Publicis_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="64" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
@@ -493,262 +493,253 @@
         <v>149</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>92</v>
+        <v>90.40000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>165</v>
-      </c>
       <c r="D4" s="4" t="n">
-        <v>93.3</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Realtek 8822CE Wireless LAN 802.11ac PCI-E NIC - 2024.10.139.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.30.1</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>97</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.40.0.4</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>188</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>1002</v>
-      </c>
-    </row>
+      <c r="B10" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11"/>
     <row r="12"/>
     <row r="13"/>
     <row r="14"/>
     <row r="15"/>
-    <row r="16"/>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Adapter-Driver</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Total Samples</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Good Roaming Calculation (%)</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Driver Vintage</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
-        </is>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>226852</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>392601</v>
+        <v>276085</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
-        </is>
+      <c r="E19" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>10661</v>
+        <v>625139</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
-        </is>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>14239</v>
+        <v>4931894</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-23</t>
-        </is>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>254702</v>
+        <v>10661</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>74604</v>
+        <v>56018</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>2021-08-18</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="24">
@@ -758,80 +749,1052 @@
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>33050</v>
+        <v>34244</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>2021-04-27</t>
-        </is>
+      <c r="E24" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>59673</v>
+        <v>27599</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>2020-08-05</t>
-        </is>
+      <c r="E25" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>107862</v>
+        <v>191877</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
-        </is>
+      <c r="E26" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>56018</v>
+        <v>262523</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>10451</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>61902</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>161874</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>52096</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>684542</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>53193</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="n">
+        <v>27295</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>442178</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+        </is>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>59635</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="n">
+        <v>52237</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="n">
+        <v>108823</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="n">
+        <v>78331</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+        </is>
+      </c>
+      <c r="B40" s="6" t="n">
+        <v>109036</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="n">
+        <v>154405</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="n">
+        <v>3650830</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="n">
+        <v>14239</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+        </is>
+      </c>
+      <c r="B44" s="6" t="n">
+        <v>265400</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="n">
+        <v>99547</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>2022-01-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+        </is>
+      </c>
+      <c r="B46" s="6" t="n">
+        <v>77849</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>2021-08-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="n">
+        <v>44160</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>2021-08-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+        </is>
+      </c>
+      <c r="B48" s="6" t="n">
+        <v>75637</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="n">
+        <v>93224</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+        </is>
+      </c>
+      <c r="B50" s="6" t="n">
+        <v>450036</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="n">
+        <v>1543020</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="n">
+        <v>169789</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t>2021-03-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="n">
+        <v>238746</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>170510</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>141909</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+        </is>
+      </c>
+      <c r="B56" s="6" t="n">
+        <v>321983</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>2020-10-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="n">
+        <v>95547</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+        </is>
+      </c>
+      <c r="B58" s="6" t="n">
+        <v>443012</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B59" s="6" t="n">
+        <v>121232</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E59" s="4" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B60" s="6" t="n">
+        <v>59673</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="n">
+        <v>36791</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+        </is>
+      </c>
+      <c r="B62" s="6" t="n">
+        <v>25808</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>2020-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="n">
+        <v>209593</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+        </is>
+      </c>
+      <c r="B64" s="6" t="n">
+        <v>178916</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B65" s="6" t="n">
+        <v>67365</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E65" s="4" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B66" s="6" t="n">
+        <v>97122</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E66" s="4" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="n">
+        <v>113652</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E67" s="4" t="inlineStr">
         <is>
           <t>2019-12-14</t>
         </is>
       </c>
     </row>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+        </is>
+      </c>
+      <c r="B68" s="6" t="n">
+        <v>308468</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E68" s="4" t="inlineStr">
+        <is>
+          <t>2019-10-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="n">
+        <v>48540</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E69" s="4" t="inlineStr">
+        <is>
+          <t>2019-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+        </is>
+      </c>
+      <c r="B70" s="6" t="n">
+        <v>139827</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E70" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+        </is>
+      </c>
+      <c r="B71" s="6" t="n">
+        <v>194659</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E71" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+        </is>
+      </c>
+      <c r="B72" s="6" t="n">
+        <v>184564</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E72" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="n">
+        <v>34718</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E73" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+        </is>
+      </c>
+      <c r="B74" s="6" t="n">
+        <v>546751</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E74" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="n">
+        <v>20227</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E75" s="4" t="inlineStr">
+        <is>
+          <t>2019-05-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+        </is>
+      </c>
+      <c r="B76" s="6" t="n">
+        <v>34065</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E76" s="4" t="inlineStr">
+        <is>
+          <t>2019-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="n">
+        <v>108633</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E77" s="4" t="inlineStr">
+        <is>
+          <t>2019-04-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+        </is>
+      </c>
+      <c r="B78" s="6" t="n">
+        <v>14221</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E78" s="4" t="inlineStr">
+        <is>
+          <t>2018-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="n">
+        <v>23765</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E79" s="4" t="inlineStr">
+        <is>
+          <t>2018-01-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Publicis_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Publicis_driver_summary.xlsx
@@ -483,81 +483,81 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>90.40000000000001</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.60.0.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.30.1</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>96.59999999999999</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.30.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="8">
@@ -579,14 +579,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.40.0.4</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>98.90000000000001</v>
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="B10" s="5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>234</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11"/>
@@ -643,15 +643,15 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>226852</v>
+        <v>10451</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E18" s="4" t="n">
         <v/>
@@ -660,15 +660,15 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>276085</v>
+        <v>61902</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E19" s="4" t="n">
         <v/>
@@ -677,234 +677,258 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>625139</v>
+        <v>54631</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <v/>
+        <v>100</v>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>4931894</v>
+        <v>445055</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E21" s="4" t="n">
-        <v/>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>10661</v>
+        <v>4931894</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>56018</v>
+        <v>52237</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E23" s="4" t="n">
-        <v/>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>34244</v>
+        <v>27295</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E24" s="4" t="n">
-        <v/>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>27599</v>
+        <v>276085</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E25" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>191877</v>
+        <v>625139</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>262523</v>
+        <v>44160</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>10451</v>
+        <v>97122</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E28" s="4" t="n">
-        <v/>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>61902</v>
+        <v>78331</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>161874</v>
+        <v>226852</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E30" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>52096</v>
+        <v>453273</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E31" s="4" t="n">
-        <v/>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>684542</v>
+        <v>27599</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>53193</v>
+        <v>10661</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
@@ -912,94 +936,94 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>27295</v>
+        <v>3650830</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>442178</v>
+        <v>154405</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>59635</v>
+        <v>14239</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>52237</v>
+        <v>265400</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>108823</v>
+        <v>25808</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
@@ -1007,37 +1031,37 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>78331</v>
+        <v>94657</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>109036</v>
+        <v>178916</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
@@ -1045,37 +1069,37 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>154405</v>
+        <v>109036</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>3650830</v>
+        <v>99547</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
@@ -1083,170 +1107,170 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>14239</v>
+        <v>77849</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>265400</v>
+        <v>75637</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>99547</v>
+        <v>34244</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>77849</v>
+        <v>1543020</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-04-18</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>44160</v>
+        <v>171222</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>75637</v>
+        <v>238746</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>93224</v>
+        <v>170510</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>450036</v>
+        <v>321983</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>1543020</v>
+        <v>52096</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" s="4" t="n">
@@ -1254,18 +1278,18 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>169789</v>
+        <v>95547</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" s="4" t="n">
@@ -1273,18 +1297,18 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>238746</v>
+        <v>121232</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="4" t="n">
@@ -1292,37 +1316,37 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>170510</v>
+        <v>59673</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
         </is>
       </c>
       <c r="B55" s="6" t="n">
-        <v>141909</v>
+        <v>36791</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" s="4" t="n">
@@ -1330,18 +1354,18 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-07-20</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B56" s="6" t="n">
-        <v>321983</v>
+        <v>684542</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" s="4" t="n">
@@ -1349,18 +1373,18 @@
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B57" s="6" t="n">
-        <v>95547</v>
+        <v>262523</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" s="4" t="n">
@@ -1368,56 +1392,56 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-04-05</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B58" s="6" t="n">
-        <v>443012</v>
+        <v>209593</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B59" s="6" t="n">
-        <v>121232</v>
+        <v>67365</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B60" s="6" t="n">
-        <v>59673</v>
+        <v>113652</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" s="4" t="n">
@@ -1425,37 +1449,37 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B61" s="6" t="n">
-        <v>36791</v>
+        <v>56018</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
         </is>
       </c>
       <c r="B62" s="6" t="n">
-        <v>25808</v>
+        <v>308468</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" s="4" t="n">
@@ -1463,56 +1487,56 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
         </is>
       </c>
       <c r="B63" s="6" t="n">
-        <v>209593</v>
+        <v>161874</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2019-09-05</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B64" s="6" t="n">
-        <v>178916</v>
+        <v>139827</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
         </is>
       </c>
       <c r="B65" s="6" t="n">
-        <v>67365</v>
+        <v>194659</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" s="4" t="n">
@@ -1520,37 +1544,37 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B66" s="6" t="n">
-        <v>97122</v>
+        <v>143342</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
         </is>
       </c>
       <c r="B67" s="6" t="n">
-        <v>113652</v>
+        <v>34718</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" s="4" t="n">
@@ -1558,18 +1582,18 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2019-08-14</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B68" s="6" t="n">
-        <v>308468</v>
+        <v>546751</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" s="4" t="n">
@@ -1577,18 +1601,18 @@
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2019-08-10</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
         </is>
       </c>
       <c r="B69" s="6" t="n">
-        <v>48540</v>
+        <v>443012</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" s="4" t="n">
@@ -1596,18 +1620,18 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2019-07-06</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
         </is>
       </c>
       <c r="B70" s="6" t="n">
-        <v>139827</v>
+        <v>20227</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" s="4" t="n">
@@ -1615,18 +1639,18 @@
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-05-11</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
         </is>
       </c>
       <c r="B71" s="6" t="n">
-        <v>194659</v>
+        <v>34065</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" s="4" t="n">
@@ -1634,37 +1658,37 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-04-28</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
         </is>
       </c>
       <c r="B72" s="6" t="n">
-        <v>184564</v>
+        <v>108633</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2019-04-06</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
         </is>
       </c>
       <c r="B73" s="6" t="n">
-        <v>34718</v>
+        <v>191877</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" s="4" t="n">
@@ -1672,18 +1696,18 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2019-03-24</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
         </is>
       </c>
       <c r="B74" s="6" t="n">
-        <v>546751</v>
+        <v>48540</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" s="4" t="n">
@@ -1691,56 +1715,56 @@
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
+          <t>2019-03-16</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
         </is>
       </c>
       <c r="B75" s="6" t="n">
-        <v>20227</v>
+        <v>61072</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>2019-05-11</t>
+          <t>2018-11-27</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B76" s="6" t="n">
-        <v>34065</v>
+        <v>184564</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2018-11-25</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
         </is>
       </c>
       <c r="B77" s="6" t="n">
-        <v>108633</v>
+        <v>108823</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" s="4" t="n">
@@ -1748,7 +1772,7 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>2019-04-06</t>
+          <t>2018-10-31</t>
         </is>
       </c>
     </row>

--- a/Output/roaming_impact_reports_per_acct/Publicis_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Publicis_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,71 +493,71 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>93.8</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.30.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>97.59999999999999</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.30.1</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.40.0.4</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="8">
@@ -577,77 +577,78 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.40.0.4</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>98.90000000000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>101</v>
-      </c>
-    </row>
+      <c r="B9" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10"/>
     <row r="11"/>
     <row r="12"/>
     <row r="13"/>
     <row r="14"/>
-    <row r="15"/>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Adapter-Driver</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Total Samples</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Good Roaming Calculation (%)</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>Driver Vintage</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
-        </is>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>10451</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>10451</v>
+        <v>61902</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
@@ -660,47 +661,49 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>61902</v>
+        <v>56069</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E19" s="4" t="n">
-        <v/>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>54631</v>
+        <v>449371</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>445055</v>
+        <v>4931894</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
@@ -708,37 +711,37 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>4931894</v>
+        <v>52237</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-08-13</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>52237</v>
+        <v>27295</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
@@ -746,37 +749,37 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-04-13</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>27295</v>
+        <v>276086</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>276085</v>
+        <v>625298</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
@@ -784,18 +787,18 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>625139</v>
+        <v>44160</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
@@ -803,56 +806,56 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>44160</v>
+        <v>97122</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>97122</v>
+        <v>78331</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>78331</v>
+        <v>226852</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
@@ -860,37 +863,37 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>226852</v>
+        <v>453652</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-03-08</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>453273</v>
+        <v>27599</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
@@ -898,18 +901,18 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>27599</v>
+        <v>10661</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
@@ -917,56 +920,56 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>10661</v>
+        <v>3650830</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>3650830</v>
+        <v>154405</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>154405</v>
+        <v>14239</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
@@ -974,41 +977,41 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>14239</v>
+        <v>265400</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>265400</v>
+        <v>25808</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
@@ -1019,11 +1022,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>25808</v>
+        <v>96091</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
@@ -1038,30 +1041,30 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>94657</v>
+        <v>178916</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>178916</v>
+        <v>109036</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
@@ -1069,18 +1072,18 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>109036</v>
+        <v>99549</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
@@ -1088,18 +1091,18 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>99547</v>
+        <v>77999</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
@@ -1107,37 +1110,37 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>77849</v>
+        <v>75637</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>75637</v>
+        <v>34244</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
@@ -1145,18 +1148,18 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>34244</v>
+        <v>1543020</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
@@ -1164,18 +1167,18 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-04-18</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>1543020</v>
+        <v>175767</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
@@ -1183,37 +1186,37 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>171222</v>
+        <v>240182</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>238746</v>
+        <v>170510</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" s="4" t="n">
@@ -1228,11 +1231,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>170510</v>
+        <v>321983</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" s="4" t="n">
@@ -1240,37 +1243,37 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>321983</v>
+        <v>52096</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>52096</v>
+        <v>95547</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" s="4" t="n">
@@ -1278,41 +1281,41 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>95547</v>
+        <v>121232</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>121232</v>
+        <v>59673</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
@@ -1323,30 +1326,30 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>59673</v>
+        <v>36791</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-07-20</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B55" s="6" t="n">
-        <v>36791</v>
+        <v>684728</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" s="4" t="n">
@@ -1354,75 +1357,75 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B56" s="6" t="n">
-        <v>684542</v>
+        <v>262523</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2020-04-05</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B57" s="6" t="n">
-        <v>262523</v>
+        <v>210188</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B58" s="6" t="n">
-        <v>209593</v>
+        <v>67365</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B59" s="6" t="n">
-        <v>67365</v>
+        <v>113652</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" s="4" t="n">
@@ -1437,11 +1440,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B60" s="6" t="n">
-        <v>113652</v>
+        <v>56018</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" s="4" t="n">
@@ -1449,18 +1452,18 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
         </is>
       </c>
       <c r="B61" s="6" t="n">
-        <v>56018</v>
+        <v>308481</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" s="4" t="n">
@@ -1468,18 +1471,18 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
         </is>
       </c>
       <c r="B62" s="6" t="n">
-        <v>308468</v>
+        <v>161874</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" s="4" t="n">
@@ -1487,18 +1490,18 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2019-09-05</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B63" s="6" t="n">
-        <v>161874</v>
+        <v>139827</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" s="4" t="n">
@@ -1506,18 +1509,18 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
         </is>
       </c>
       <c r="B64" s="6" t="n">
-        <v>139827</v>
+        <v>194659</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" s="4" t="n">
@@ -1532,49 +1535,49 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B65" s="6" t="n">
-        <v>194659</v>
+        <v>144782</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
         </is>
       </c>
       <c r="B66" s="6" t="n">
-        <v>143342</v>
+        <v>34718</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2019-08-14</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B67" s="6" t="n">
-        <v>34718</v>
+        <v>546751</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" s="4" t="n">
@@ -1582,18 +1585,18 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2019-08-10</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
         </is>
       </c>
       <c r="B68" s="6" t="n">
-        <v>546751</v>
+        <v>443223</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" s="4" t="n">
@@ -1601,18 +1604,18 @@
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
+          <t>2019-07-06</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
         </is>
       </c>
       <c r="B69" s="6" t="n">
-        <v>443012</v>
+        <v>20227</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" s="4" t="n">
@@ -1620,18 +1623,18 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>2019-07-06</t>
+          <t>2019-05-11</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
         </is>
       </c>
       <c r="B70" s="6" t="n">
-        <v>20227</v>
+        <v>34065</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" s="4" t="n">
@@ -1639,18 +1642,18 @@
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>2019-05-11</t>
+          <t>2019-04-28</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
         </is>
       </c>
       <c r="B71" s="6" t="n">
-        <v>34065</v>
+        <v>109665</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" s="4" t="n">
@@ -1658,18 +1661,18 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2019-04-06</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
         </is>
       </c>
       <c r="B72" s="6" t="n">
-        <v>108633</v>
+        <v>191877</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" s="4" t="n">
@@ -1677,18 +1680,18 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>2019-04-06</t>
+          <t>2019-03-24</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
         </is>
       </c>
       <c r="B73" s="6" t="n">
-        <v>191877</v>
+        <v>48540</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" s="4" t="n">
@@ -1696,37 +1699,37 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>2019-03-24</t>
+          <t>2019-03-16</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
         </is>
       </c>
       <c r="B74" s="6" t="n">
-        <v>48540</v>
+        <v>62515</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>2019-03-16</t>
+          <t>2018-11-27</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B75" s="6" t="n">
-        <v>61072</v>
+        <v>184564</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" s="4" t="n">
@@ -1734,37 +1737,37 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>2018-11-27</t>
+          <t>2018-11-25</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
         </is>
       </c>
       <c r="B76" s="6" t="n">
-        <v>184564</v>
+        <v>108823</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>2018-11-25</t>
+          <t>2018-10-31</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
         </is>
       </c>
       <c r="B77" s="6" t="n">
-        <v>108823</v>
+        <v>14221</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" s="4" t="n">
@@ -1772,18 +1775,18 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>2018-10-31</t>
+          <t>2018-05-08</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
         </is>
       </c>
       <c r="B78" s="6" t="n">
-        <v>14221</v>
+        <v>23765</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" s="4" t="n">
@@ -1791,34 +1794,15 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>2018-05-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
-        </is>
-      </c>
-      <c r="B79" s="6" t="n">
-        <v>23765</v>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E79" s="4" t="inlineStr">
-        <is>
           <t>2018-01-09</t>
         </is>
       </c>
     </row>
+    <row r="79"/>
     <row r="80"/>
     <row r="81"/>
     <row r="82"/>
     <row r="83"/>
-    <row r="84"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Publicis_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Publicis_driver_summary.xlsx
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>91.3</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="4">

--- a/Output/roaming_impact_reports_per_acct/Publicis_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Publicis_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,9 +63,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,15 +437,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="64" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="48" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,7 +487,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>98.40000000000001</v>
@@ -538,10 +535,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -554,7 +551,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>139</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8"/>
@@ -570,221 +567,1495 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>11128</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v/>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>376240</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D15" t="n">
+        <v>582</v>
+      </c>
+      <c r="E15" t="n">
+        <v>594</v>
+      </c>
+      <c r="F15" t="n">
+        <v>377926</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>486214</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1786148</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3309</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4386</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2366</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1793843</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>11140</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7568454</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14989</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13188</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16900</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7596631</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>22.40.0.7</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2021-09-18</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>14487</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-23</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.1.1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>290468</v>
+      </c>
+      <c r="C18" t="n">
+        <v>898</v>
+      </c>
+      <c r="D18" t="n">
+        <v>303</v>
+      </c>
+      <c r="E18" t="n">
+        <v>412</v>
+      </c>
+      <c r="F18" t="n">
+        <v>291669</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>22.150.1.1</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="n">
-        <v>265400</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.180.0.4</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17609</v>
+      </c>
+      <c r="C19" t="n">
+        <v>69</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>57</v>
+      </c>
+      <c r="F19" t="n">
+        <v>17678</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>22.180.0.4</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>79953</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2021-08-18</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1254472</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4270</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1946</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1259751</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>35355</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2021-04-27</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>448248</v>
+      </c>
+      <c r="C21" t="n">
+        <v>738</v>
+      </c>
+      <c r="D21" t="n">
+        <v>931</v>
+      </c>
+      <c r="E21" t="n">
+        <v>688</v>
+      </c>
+      <c r="F21" t="n">
+        <v>449917</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>65425</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>2020-08-05</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>204134</v>
+      </c>
+      <c r="C22" t="n">
+        <v>775</v>
+      </c>
+      <c r="D22" t="n">
+        <v>52</v>
+      </c>
+      <c r="E22" t="n">
+        <v>319</v>
+      </c>
+      <c r="F22" t="n">
+        <v>204961</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>23.120.0.3</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>117653</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>28296</v>
+      </c>
+      <c r="C23" t="n">
+        <v>111</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>61</v>
+      </c>
+      <c r="F23" t="n">
+        <v>28407</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Realtek RTL8852AE WiFi 6 802.11ax PCIe Adapter - 6001.10.356.1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1071383</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4419</v>
+      </c>
+      <c r="D24" t="n">
+        <v>180</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1644</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1075982</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>realtek rtl8852ae wifi 6 802.11ax pcie adapter</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>6001.10.356.1</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.230.0.8</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1734330</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2979</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2614</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2960</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1739923</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>22.230.0.8</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>733616</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1647</v>
+      </c>
+      <c r="D26" t="n">
+        <v>507</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F26" t="n">
+        <v>735770</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.110.1.1</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>134169</v>
+      </c>
+      <c r="C27" t="n">
+        <v>189</v>
+      </c>
+      <c r="D27" t="n">
+        <v>263</v>
+      </c>
+      <c r="E27" t="n">
+        <v>192</v>
+      </c>
+      <c r="F27" t="n">
+        <v>134621</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>22.110.1.1</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>210370</v>
+      </c>
+      <c r="C28" t="n">
+        <v>324</v>
+      </c>
+      <c r="D28" t="n">
+        <v>313</v>
+      </c>
+      <c r="E28" t="n">
+        <v>558</v>
+      </c>
+      <c r="F28" t="n">
+        <v>211007</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>23.70.2.3</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1159949</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2346</v>
+      </c>
+      <c r="D29" t="n">
+        <v>583</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1162878</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>22.170.0.3</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>192287</v>
+      </c>
+      <c r="C30" t="n">
+        <v>421</v>
+      </c>
+      <c r="D30" t="n">
+        <v>70</v>
+      </c>
+      <c r="E30" t="n">
+        <v>390</v>
+      </c>
+      <c r="F30" t="n">
+        <v>192778</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>23.80.1.3</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1499724</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4069</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1136</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2789</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1504929</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>22.190.0.4</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>330685</v>
+      </c>
+      <c r="C32" t="n">
+        <v>445</v>
+      </c>
+      <c r="D32" t="n">
+        <v>530</v>
+      </c>
+      <c r="E32" t="n">
+        <v>410</v>
+      </c>
+      <c r="F32" t="n">
+        <v>331660</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>22.90.0.5</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2021-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>938125</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2222</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E33" t="n">
+        <v>959</v>
+      </c>
+      <c r="F33" t="n">
+        <v>941353</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>22.20.0.6</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2020-11-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.80.1.3</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>140350</v>
+      </c>
+      <c r="C34" t="n">
+        <v>270</v>
+      </c>
+      <c r="D34" t="n">
+        <v>75</v>
+      </c>
+      <c r="E34" t="n">
+        <v>307</v>
+      </c>
+      <c r="F34" t="n">
+        <v>140695</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>23.80.1.3</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.100.0.4</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>230530</v>
+      </c>
+      <c r="C35" t="n">
+        <v>421</v>
+      </c>
+      <c r="D35" t="n">
+        <v>37</v>
+      </c>
+      <c r="E35" t="n">
+        <v>399</v>
+      </c>
+      <c r="F35" t="n">
+        <v>230988</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>23.100.0.4</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>95095</v>
+      </c>
+      <c r="C36" t="n">
+        <v>191</v>
+      </c>
+      <c r="D36" t="n">
+        <v>30</v>
+      </c>
+      <c r="E36" t="n">
+        <v>247</v>
+      </c>
+      <c r="F36" t="n">
+        <v>95316</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>22.60.0.6</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2021-05-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1731609</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2149</v>
+      </c>
+      <c r="D37" t="n">
+        <v>656</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1812</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1734414</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>22.0.0.6</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1296766</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1864</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2887</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1299705</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>389283</v>
+      </c>
+      <c r="C39" t="n">
+        <v>428</v>
+      </c>
+      <c r="D39" t="n">
+        <v>216</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1233</v>
+      </c>
+      <c r="F39" t="n">
+        <v>389927</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>21.80.2.1</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>63994</v>
+      </c>
+      <c r="C40" t="n">
+        <v>66</v>
+      </c>
+      <c r="D40" t="n">
+        <v>41</v>
+      </c>
+      <c r="E40" t="n">
+        <v>68</v>
+      </c>
+      <c r="F40" t="n">
+        <v>64101</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>21.80.0.4</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2020-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>79835</v>
+      </c>
+      <c r="C41" t="n">
+        <v>93</v>
+      </c>
+      <c r="D41" t="n">
+        <v>25</v>
+      </c>
+      <c r="E41" t="n">
+        <v>153</v>
+      </c>
+      <c r="F41" t="n">
+        <v>79953</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>22.80.0.9</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2021-08-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>485568</v>
+      </c>
+      <c r="C42" t="n">
+        <v>468</v>
+      </c>
+      <c r="D42" t="n">
+        <v>178</v>
+      </c>
+      <c r="E42" t="n">
+        <v>568</v>
+      </c>
+      <c r="F42" t="n">
+        <v>486214</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>23.100.0.4</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>265066</v>
+      </c>
+      <c r="C43" t="n">
+        <v>203</v>
+      </c>
+      <c r="D43" t="n">
+        <v>131</v>
+      </c>
+      <c r="E43" t="n">
+        <v>310</v>
+      </c>
+      <c r="F43" t="n">
+        <v>265400</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>22.100.1.1</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>14487</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>57</v>
+      </c>
+      <c r="F44" t="n">
+        <v>14487</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>22.150.0.3</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>100</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>11140</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>59</v>
+      </c>
+      <c r="F45" t="n">
+        <v>11140</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>22.150.3.1</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>100</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>65422</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>72</v>
+      </c>
+      <c r="F46" t="n">
+        <v>65425</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>21.110.3.2</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>100</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>11124</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>28</v>
+      </c>
+      <c r="F47" t="n">
+        <v>11128</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>21.40.1.3</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>100</v>
+      </c>
+      <c r="J47" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
-      <c r="B24" s="6" t="n">
+      <c r="B48" t="n">
+        <v>56003</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>15</v>
+      </c>
+      <c r="E48" t="n">
+        <v>62</v>
+      </c>
+      <c r="F48" t="n">
         <v>56018</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" s="4" t="n">
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>21.60.2.1</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>100</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>2019-12-14</t>
         </is>
       </c>
     </row>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>117615</v>
+      </c>
+      <c r="C49" t="n">
+        <v>24</v>
+      </c>
+      <c r="D49" t="n">
+        <v>14</v>
+      </c>
+      <c r="E49" t="n">
+        <v>151</v>
+      </c>
+      <c r="F49" t="n">
+        <v>117653</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>21.70.0.6</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>100</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>35341</v>
+      </c>
+      <c r="C50" t="n">
+        <v>11</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="n">
+        <v>80</v>
+      </c>
+      <c r="F50" t="n">
+        <v>35355</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>22.50.1.1</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>100</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Publicis_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Publicis_driver_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,14 +436,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="64" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="48" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="32" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
     <col width="30" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
@@ -487,157 +487,181 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Realtek 8822CE Wireless LAN 802.11ac PCI-E NIC - 2024.10.139.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Realtek RTL8852AE WiFi 6 802.11ax PCIe Adapter - 6001.10.353.0</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.60.1.2</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.90.0.2</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>53</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>98.90000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>164</v>
-      </c>
-    </row>
+      <c r="B6" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7"/>
     <row r="8"/>
     <row r="9"/>
     <row r="10"/>
     <row r="11"/>
-    <row r="12"/>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>adapter-driver</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>good sum</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>critical sum</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>warning sum</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>client count</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>total sum</t>
-        </is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1869842</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3420</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4386</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2436</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1877648</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>adapter</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>driver</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>good roaming calculation (%)</t>
-        </is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>99.59999999999999</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>driver vintage</t>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>376240</v>
+        <v>8170878</v>
       </c>
       <c r="C15" t="n">
-        <v>1104</v>
+        <v>15867</v>
       </c>
       <c r="D15" t="n">
-        <v>582</v>
+        <v>13188</v>
       </c>
       <c r="E15" t="n">
-        <v>594</v>
+        <v>18436</v>
       </c>
       <c r="F15" t="n">
-        <v>377926</v>
+        <v>8199933</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -646,7 +670,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>22.40.0.7</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -654,30 +678,30 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2021-09-18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1786148</v>
+        <v>1611822</v>
       </c>
       <c r="C16" t="n">
-        <v>3309</v>
+        <v>4793</v>
       </c>
       <c r="D16" t="n">
-        <v>4386</v>
+        <v>1136</v>
       </c>
       <c r="E16" t="n">
-        <v>2366</v>
+        <v>2996</v>
       </c>
       <c r="F16" t="n">
-        <v>1793843</v>
+        <v>1617751</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -686,7 +710,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>22.250.0.4</t>
+          <t>22.190.0.4</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -694,30 +718,30 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7568454</v>
+        <v>298304</v>
       </c>
       <c r="C17" t="n">
-        <v>14989</v>
+        <v>925</v>
       </c>
       <c r="D17" t="n">
-        <v>13188</v>
+        <v>303</v>
       </c>
       <c r="E17" t="n">
-        <v>16900</v>
+        <v>420</v>
       </c>
       <c r="F17" t="n">
-        <v>7596631</v>
+        <v>299532</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -726,7 +750,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>22.40.0.7</t>
+          <t>22.150.1.1</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -734,30 +758,30 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>290468</v>
+        <v>381616</v>
       </c>
       <c r="C18" t="n">
-        <v>898</v>
+        <v>1106</v>
       </c>
       <c r="D18" t="n">
-        <v>303</v>
+        <v>582</v>
       </c>
       <c r="E18" t="n">
-        <v>412</v>
+        <v>601</v>
       </c>
       <c r="F18" t="n">
-        <v>291669</v>
+        <v>383304</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -766,7 +790,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>22.150.1.1</t>
+          <t>23.10.0.8</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -774,7 +798,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
@@ -825,19 +849,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1254472</v>
+        <v>1293197</v>
       </c>
       <c r="C20" t="n">
-        <v>4270</v>
+        <v>4322</v>
       </c>
       <c r="D20" t="n">
         <v>1009</v>
       </c>
       <c r="E20" t="n">
-        <v>1946</v>
+        <v>1990</v>
       </c>
       <c r="F20" t="n">
-        <v>1259751</v>
+        <v>1298528</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -861,23 +885,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>448248</v>
+        <v>31517</v>
       </c>
       <c r="C21" t="n">
-        <v>738</v>
+        <v>112</v>
       </c>
       <c r="D21" t="n">
-        <v>931</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>688</v>
+        <v>66</v>
       </c>
       <c r="F21" t="n">
-        <v>449917</v>
+        <v>31629</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -886,7 +910,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -894,30 +918,30 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>204134</v>
+        <v>467311</v>
       </c>
       <c r="C22" t="n">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D22" t="n">
-        <v>52</v>
+        <v>931</v>
       </c>
       <c r="E22" t="n">
-        <v>319</v>
+        <v>706</v>
       </c>
       <c r="F22" t="n">
-        <v>204961</v>
+        <v>469014</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -926,7 +950,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>23.120.0.3</t>
+          <t>23.10.0.8</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -934,30 +958,30 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>28296</v>
+        <v>455081</v>
       </c>
       <c r="C23" t="n">
-        <v>111</v>
+        <v>1861</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E23" t="n">
-        <v>61</v>
+        <v>639</v>
       </c>
       <c r="F23" t="n">
-        <v>28407</v>
+        <v>456994</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -966,7 +990,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>23.120.0.3</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -974,70 +998,70 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Realtek RTL8852AE WiFi 6 802.11ax PCIe Adapter - 6001.10.356.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1071383</v>
+        <v>1787924</v>
       </c>
       <c r="C24" t="n">
-        <v>4419</v>
+        <v>3326</v>
       </c>
       <c r="D24" t="n">
-        <v>180</v>
+        <v>2614</v>
       </c>
       <c r="E24" t="n">
-        <v>1644</v>
+        <v>3038</v>
       </c>
       <c r="F24" t="n">
-        <v>1075982</v>
+        <v>1793864</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>realtek rtl8852ae wifi 6 802.11ax pcie adapter</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>6001.10.356.1</t>
+          <t>22.230.0.8</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2024-05-12</t>
+          <t>2023-05-08</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1734330</v>
+        <v>218767</v>
       </c>
       <c r="C25" t="n">
-        <v>2979</v>
+        <v>334</v>
       </c>
       <c r="D25" t="n">
-        <v>2614</v>
+        <v>313</v>
       </c>
       <c r="E25" t="n">
-        <v>2960</v>
+        <v>573</v>
       </c>
       <c r="F25" t="n">
-        <v>1739923</v>
+        <v>219414</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1046,7 +1070,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>22.230.0.8</t>
+          <t>23.70.2.3</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1054,39 +1078,39 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>733616</v>
+        <v>135467</v>
       </c>
       <c r="C26" t="n">
-        <v>1647</v>
+        <v>189</v>
       </c>
       <c r="D26" t="n">
-        <v>507</v>
+        <v>263</v>
       </c>
       <c r="E26" t="n">
-        <v>1266</v>
+        <v>196</v>
       </c>
       <c r="F26" t="n">
-        <v>735770</v>
+        <v>135919</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>22.110.1.1</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1094,39 +1118,39 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>134169</v>
+        <v>335610</v>
       </c>
       <c r="C27" t="n">
-        <v>189</v>
+        <v>495</v>
       </c>
       <c r="D27" t="n">
-        <v>263</v>
+        <v>530</v>
       </c>
       <c r="E27" t="n">
-        <v>192</v>
+        <v>414</v>
       </c>
       <c r="F27" t="n">
-        <v>134621</v>
+        <v>336635</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>22.110.1.1</t>
+          <t>22.90.0.5</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1134,39 +1158,39 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>210370</v>
+        <v>750778</v>
       </c>
       <c r="C28" t="n">
-        <v>324</v>
+        <v>1655</v>
       </c>
       <c r="D28" t="n">
-        <v>313</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>558</v>
+        <v>1290</v>
       </c>
       <c r="F28" t="n">
-        <v>211007</v>
+        <v>752940</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>23.70.2.3</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -1174,30 +1198,30 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1159949</v>
+        <v>1021828</v>
       </c>
       <c r="C29" t="n">
-        <v>2346</v>
+        <v>2379</v>
       </c>
       <c r="D29" t="n">
-        <v>583</v>
+        <v>1006</v>
       </c>
       <c r="E29" t="n">
-        <v>1850</v>
+        <v>1021</v>
       </c>
       <c r="F29" t="n">
-        <v>1162878</v>
+        <v>1025213</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1206,7 +1230,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>22.170.0.3</t>
+          <t>22.20.0.6</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -1214,30 +1238,30 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2022-08-28</t>
+          <t>2020-11-29</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>192287</v>
+        <v>100380</v>
       </c>
       <c r="C30" t="n">
-        <v>421</v>
+        <v>264</v>
       </c>
       <c r="D30" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E30" t="n">
-        <v>390</v>
+        <v>267</v>
       </c>
       <c r="F30" t="n">
-        <v>192778</v>
+        <v>100674</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1246,7 +1270,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>22.60.0.6</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -1254,30 +1278,30 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2021-05-26</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1499724</v>
+        <v>195464</v>
       </c>
       <c r="C31" t="n">
-        <v>4069</v>
+        <v>430</v>
       </c>
       <c r="D31" t="n">
-        <v>1136</v>
+        <v>70</v>
       </c>
       <c r="E31" t="n">
-        <v>2789</v>
+        <v>401</v>
       </c>
       <c r="F31" t="n">
-        <v>1504929</v>
+        <v>195964</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1286,7 +1310,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>22.190.0.4</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -1294,119 +1318,119 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>330685</v>
+        <v>240434</v>
       </c>
       <c r="C32" t="n">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="D32" t="n">
-        <v>530</v>
+        <v>37</v>
       </c>
       <c r="E32" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F32" t="n">
-        <v>331660</v>
+        <v>240892</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>22.90.0.5</t>
+          <t>23.100.0.4</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>938125</v>
+        <v>151287</v>
       </c>
       <c r="C33" t="n">
-        <v>2222</v>
+        <v>285</v>
       </c>
       <c r="D33" t="n">
-        <v>1006</v>
+        <v>75</v>
       </c>
       <c r="E33" t="n">
-        <v>959</v>
+        <v>332</v>
       </c>
       <c r="F33" t="n">
-        <v>941353</v>
+        <v>151647</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>22.20.0.6</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140350</v>
+        <v>1833336</v>
       </c>
       <c r="C34" t="n">
-        <v>270</v>
+        <v>2376</v>
       </c>
       <c r="D34" t="n">
-        <v>75</v>
+        <v>656</v>
       </c>
       <c r="E34" t="n">
-        <v>307</v>
+        <v>1899</v>
       </c>
       <c r="F34" t="n">
-        <v>140695</v>
+        <v>1836368</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>22.0.0.6</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -1414,39 +1438,39 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2020-09-16</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>230530</v>
+        <v>1237156</v>
       </c>
       <c r="C35" t="n">
-        <v>421</v>
+        <v>2499</v>
       </c>
       <c r="D35" t="n">
-        <v>37</v>
+        <v>583</v>
       </c>
       <c r="E35" t="n">
-        <v>399</v>
+        <v>1951</v>
       </c>
       <c r="F35" t="n">
-        <v>230988</v>
+        <v>1240238</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>23.100.0.4</t>
+          <t>22.170.0.3</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -1454,30 +1478,30 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2022-08-28</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>95095</v>
+        <v>63994</v>
       </c>
       <c r="C36" t="n">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="D36" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E36" t="n">
-        <v>247</v>
+        <v>68</v>
       </c>
       <c r="F36" t="n">
-        <v>95316</v>
+        <v>64101</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1486,7 +1510,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>22.60.0.6</t>
+          <t>21.80.0.4</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -1494,30 +1518,30 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2020-01-29</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1731609</v>
+        <v>81417</v>
       </c>
       <c r="C37" t="n">
-        <v>2149</v>
+        <v>107</v>
       </c>
       <c r="D37" t="n">
-        <v>656</v>
+        <v>25</v>
       </c>
       <c r="E37" t="n">
-        <v>1812</v>
+        <v>158</v>
       </c>
       <c r="F37" t="n">
-        <v>1734414</v>
+        <v>81549</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1526,7 +1550,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>22.0.0.6</t>
+          <t>22.80.0.9</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -1534,7 +1558,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
@@ -1545,19 +1569,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1296766</v>
+        <v>1400496</v>
       </c>
       <c r="C38" t="n">
-        <v>1864</v>
+        <v>2029</v>
       </c>
       <c r="D38" t="n">
         <v>1075</v>
       </c>
       <c r="E38" t="n">
-        <v>2887</v>
+        <v>3210</v>
       </c>
       <c r="F38" t="n">
-        <v>1299705</v>
+        <v>1403600</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1585,19 +1609,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>389283</v>
+        <v>393045</v>
       </c>
       <c r="C39" t="n">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="D39" t="n">
         <v>216</v>
       </c>
       <c r="E39" t="n">
-        <v>1233</v>
+        <v>1251</v>
       </c>
       <c r="F39" t="n">
-        <v>389927</v>
+        <v>393714</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1621,63 +1645,63 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>63994</v>
+        <v>272039</v>
       </c>
       <c r="C40" t="n">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c r="D40" t="n">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="E40" t="n">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="F40" t="n">
-        <v>64101</v>
+        <v>272383</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>21.80.0.4</t>
+          <t>22.100.1.1</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79835</v>
+        <v>509717</v>
       </c>
       <c r="C41" t="n">
-        <v>93</v>
+        <v>522</v>
       </c>
       <c r="D41" t="n">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="E41" t="n">
-        <v>153</v>
+        <v>590</v>
       </c>
       <c r="F41" t="n">
-        <v>79953</v>
+        <v>510417</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1686,7 +1710,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>22.80.0.9</t>
+          <t>23.100.0.4</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -1694,30 +1718,30 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>485568</v>
+        <v>11362</v>
       </c>
       <c r="C42" t="n">
-        <v>468</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>568</v>
+        <v>30</v>
       </c>
       <c r="F42" t="n">
-        <v>486214</v>
+        <v>11369</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1726,38 +1750,36 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>23.100.0.4</t>
+          <t>21.40.1.3</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
-        </is>
+      <c r="J42" t="n">
+        <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265066</v>
+        <v>14561</v>
       </c>
       <c r="C43" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>310</v>
+        <v>59</v>
       </c>
       <c r="F43" t="n">
-        <v>265400</v>
+        <v>14561</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1766,26 +1788,26 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>22.100.1.1</t>
+          <t>22.150.0.3</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14487</v>
+        <v>12018</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1794,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F44" t="n">
-        <v>14487</v>
+        <v>12018</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1806,7 +1828,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>22.150.0.3</t>
+          <t>22.150.3.1</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -1814,39 +1836,39 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>11140</v>
+        <v>75454</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F45" t="n">
-        <v>11140</v>
+        <v>75457</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>22.150.3.1</t>
+          <t>21.110.3.2</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -1854,30 +1876,30 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65422</v>
+        <v>56003</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F46" t="n">
-        <v>65425</v>
+        <v>56018</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1886,7 +1908,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>21.110.3.2</t>
+          <t>21.60.2.1</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -1894,30 +1916,30 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>11124</v>
+        <v>121310</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E47" t="n">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="F47" t="n">
-        <v>11128</v>
+        <v>121350</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1926,36 +1948,38 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>21.40.1.3</t>
+          <t>21.70.0.6</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>100</v>
       </c>
-      <c r="J47" t="n">
-        <v/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>56003</v>
+        <v>35363</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F48" t="n">
-        <v>56018</v>
+        <v>35377</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1964,93 +1988,13 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>21.60.2.1</t>
+          <t>22.50.1.1</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>100</v>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>2019-12-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>117615</v>
-      </c>
-      <c r="C49" t="n">
-        <v>24</v>
-      </c>
-      <c r="D49" t="n">
-        <v>14</v>
-      </c>
-      <c r="E49" t="n">
-        <v>151</v>
-      </c>
-      <c r="F49" t="n">
-        <v>117653</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>21.70.0.6</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>100</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>35341</v>
-      </c>
-      <c r="C50" t="n">
-        <v>11</v>
-      </c>
-      <c r="D50" t="n">
-        <v>3</v>
-      </c>
-      <c r="E50" t="n">
-        <v>80</v>
-      </c>
-      <c r="F50" t="n">
-        <v>35355</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>22.50.1.1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>100</v>
-      </c>
-      <c r="J50" t="inlineStr">
         <is>
           <t>2021-04-27</t>
         </is>
